--- a/Groupwork/DF final.xlsx
+++ b/Groupwork/DF final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityuni-my.sharepoint.com/personal/pietro_rota_bayes_city_ac_uk/Documents/Documents/a2025-2026 BAYES/DABF - Data Analytics for Banking &amp; Finance/DABF_code/Groupwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{0BFD528B-9ABF-4C8F-89A1-F1492E273C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137D7ACA-1D89-4EFB-B8D7-BC22A34DFAA6}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{0BFD528B-9ABF-4C8F-89A1-F1492E273C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C232D7C-E61F-4DBB-A80C-35FFE9BA671E}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" activeTab="1" xr2:uid="{710F251B-32F8-40FC-8DC3-610372DBFCD8}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" activeTab="4" xr2:uid="{710F251B-32F8-40FC-8DC3-610372DBFCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="2" r:id="rId1"/>
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -481,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -510,6 +516,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -20410,8 +20418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCB136D-20C7-431E-BDA5-23EB5427C3C8}">
   <dimension ref="A1:O367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47834,13 +47842,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883ADA5E-0EC8-4F04-AFF2-AC3EAF4C7307}">
   <dimension ref="A1:AX110"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.06640625" style="16"/>
     <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -47879,7 +47888,7 @@
       <c r="M1">
         <v>46</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="16">
         <v>32</v>
       </c>
       <c r="O1">
@@ -47920,7 +47929,7 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O2" t="s">
@@ -47968,7 +47977,7 @@
       <c r="M3">
         <v>47124109.041157417</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="16">
         <v>79393029339.183578</v>
       </c>
       <c r="O3">
@@ -48063,7 +48072,7 @@
       <c r="M4">
         <v>48349260.646151863</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="16">
         <v>83986682086.526733</v>
       </c>
       <c r="O4">
@@ -48154,7 +48163,7 @@
       <c r="M5">
         <v>41259465.872289918</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="16">
         <v>79065194939.329224</v>
       </c>
       <c r="O5">
@@ -48245,7 +48254,7 @@
       <c r="M6">
         <v>36627490.011902995</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="16">
         <v>63500661091.80719</v>
       </c>
       <c r="O6">
@@ -48336,7 +48345,7 @@
       <c r="M7">
         <v>27640973.064742733</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="16">
         <v>63672586389.647728</v>
       </c>
       <c r="O7">
@@ -48427,7 +48436,7 @@
       <c r="M8">
         <v>31448655.532856163</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="16">
         <v>70295490480.917343</v>
       </c>
       <c r="O8">
@@ -48518,7 +48527,7 @@
       <c r="M9">
         <v>31336739.526763521</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="16">
         <v>57835326660.573143</v>
       </c>
       <c r="O9">
@@ -48609,7 +48618,7 @@
       <c r="M10">
         <v>28484498.84382866</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="16">
         <v>67271227695.163078</v>
       </c>
       <c r="O10">
@@ -48700,7 +48709,7 @@
       <c r="M11">
         <v>25173253.220173962</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="16">
         <v>68017841680.390312</v>
       </c>
       <c r="O11">
@@ -48797,7 +48806,7 @@
       <c r="M13">
         <v>13.95311292796273</v>
       </c>
-      <c r="N13" t="e">
+      <c r="N13" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O13">
@@ -48892,7 +48901,7 @@
       <c r="M14">
         <v>10.59268961272268</v>
       </c>
-      <c r="N14" t="e">
+      <c r="N14" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O14">
@@ -48983,7 +48992,7 @@
       <c r="M15">
         <v>5.8534695275110478</v>
       </c>
-      <c r="N15" t="e">
+      <c r="N15" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O15">
@@ -49074,7 +49083,7 @@
       <c r="M16">
         <v>4.5429345090183375</v>
       </c>
-      <c r="N16" t="e">
+      <c r="N16" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O16">
@@ -49165,7 +49174,7 @@
       <c r="M17">
         <v>3.9438516452182513</v>
       </c>
-      <c r="N17" t="e">
+      <c r="N17" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O17">
@@ -49256,7 +49265,7 @@
       <c r="M18">
         <v>4.6093960299913199</v>
       </c>
-      <c r="N18" t="e">
+      <c r="N18" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O18">
@@ -49347,7 +49356,7 @@
       <c r="M19">
         <v>4.3855802122620826</v>
       </c>
-      <c r="N19" t="e">
+      <c r="N19" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O19">
@@ -49438,7 +49447,7 @@
       <c r="M20">
         <v>27.359578262110695</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O20">
@@ -49529,7 +49538,7 @@
       <c r="M21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O21">
@@ -49626,7 +49635,7 @@
       <c r="M23">
         <v>-0.44</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O23">
@@ -49721,7 +49730,7 @@
       <c r="M24">
         <v>-0.241338</v>
       </c>
-      <c r="N24" t="e">
+      <c r="N24" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O24">
@@ -49812,7 +49821,7 @@
       <c r="M25">
         <v>-0.09</v>
       </c>
-      <c r="N25" t="e">
+      <c r="N25" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O25">
@@ -49903,7 +49912,7 @@
       <c r="M26">
         <v>-0.21013399999999999</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O26">
@@ -49994,7 +50003,7 @@
       <c r="M27">
         <v>-0.32</v>
       </c>
-      <c r="N27" t="e">
+      <c r="N27" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O27">
@@ -50085,7 +50094,7 @@
       <c r="M28">
         <v>-0.11969399999999999</v>
       </c>
-      <c r="N28" t="e">
+      <c r="N28" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O28">
@@ -50176,7 +50185,7 @@
       <c r="M29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N29" t="e">
+      <c r="N29" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="O29" t="e">
@@ -50267,7 +50276,7 @@
       <c r="M30" t="s">
         <v>0</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="16" t="s">
         <v>0</v>
       </c>
       <c r="O30" t="s">
@@ -50358,7 +50367,7 @@
       <c r="M31" t="s">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="16" t="s">
         <v>0</v>
       </c>
       <c r="O31" t="s">
@@ -50449,7 +50458,7 @@
       <c r="M32" t="s">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="16" t="s">
         <v>0</v>
       </c>
       <c r="O32" t="s">
@@ -50540,7 +50549,7 @@
       <c r="M33" t="s">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="16" t="s">
         <v>0</v>
       </c>
       <c r="O33" t="s">
@@ -50631,7 +50640,7 @@
       <c r="M34" t="s">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="16" t="s">
         <v>0</v>
       </c>
       <c r="O34" t="s">
@@ -50725,7 +50734,7 @@
       <c r="M36">
         <v>20.802432388498069</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="16">
         <v>6.4847009735744088</v>
       </c>
       <c r="O36">
@@ -50820,7 +50829,7 @@
       <c r="M37">
         <v>14.53266893477007</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="16">
         <v>9.1077453620427242</v>
       </c>
       <c r="O37">
@@ -50911,7 +50920,7 @@
       <c r="M38">
         <v>10.409694056080248</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="16">
         <v>5.3619368981059585</v>
       </c>
       <c r="O38">
@@ -51002,7 +51011,7 @@
       <c r="M39">
         <v>2.1334323734713228</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="16">
         <v>3.3510438624353904</v>
       </c>
       <c r="O39">
@@ -51093,7 +51102,7 @@
       <c r="M40">
         <v>-3.1189932743860265</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="16">
         <v>2.6801298022935618</v>
       </c>
       <c r="O40">
@@ -51184,7 +51193,7 @@
       <c r="M41">
         <v>-4.5845294346864289</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="16">
         <v>0.98591856625401852</v>
       </c>
       <c r="O41">
@@ -51275,7 +51284,7 @@
       <c r="M42">
         <v>-4.5845294346864289</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="16">
         <v>0.13546136862202721</v>
       </c>
       <c r="O42">
@@ -51366,7 +51375,7 @@
       <c r="M43">
         <v>-6.5291680203080693</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="16">
         <v>-0.42921460910042719</v>
       </c>
       <c r="O43">
@@ -51457,7 +51466,7 @@
       <c r="M44">
         <v>-5.563246901388025</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="16">
         <v>0.20174836639366731</v>
       </c>
       <c r="O44">
@@ -51565,7 +51574,7 @@
       <c r="M46">
         <v>59.245491464585328</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="16">
         <v>27.235154949323832</v>
       </c>
       <c r="O46">
@@ -51672,7 +51681,7 @@
       <c r="M47">
         <v>40.437952638916713</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="16">
         <v>39.311173898728171</v>
       </c>
       <c r="O47">
@@ -51763,7 +51772,7 @@
       <c r="M48">
         <v>27.240814226241795</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="16">
         <v>22.131849936820089</v>
       </c>
       <c r="O48">
@@ -51854,7 +51863,7 @@
       <c r="M49">
         <v>6.515303509428569</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="16">
         <v>13.116676675262283</v>
       </c>
       <c r="O49">
@@ -51945,7 +51954,7 @@
       <c r="M50">
         <v>-9.9058968342277449</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="16">
         <v>10.719043701724628</v>
       </c>
       <c r="O50">
@@ -52036,7 +52045,7 @@
       <c r="M51">
         <v>-12.924304911998485</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="16">
         <v>3.9491708198536908</v>
       </c>
       <c r="O51">
@@ -52127,7 +52136,7 @@
       <c r="M52">
         <v>-12.924304911998485</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="16">
         <v>0.60297778258785695</v>
       </c>
       <c r="O52">
@@ -52218,7 +52227,7 @@
       <c r="M53">
         <v>-20.014752654338221</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="16">
         <v>-1.8689690198070086</v>
       </c>
       <c r="O53">
@@ -52309,7 +52318,7 @@
       <c r="M54">
         <v>-18.363002636258802</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="16">
         <v>0.89019831464233667</v>
       </c>
       <c r="O54">
@@ -52403,7 +52412,7 @@
       <c r="M56">
         <v>0.63999998569488525</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="16">
         <v>6.320000171661377</v>
       </c>
       <c r="O56">
@@ -52550,7 +52559,7 @@
       <c r="M57">
         <v>0.63999998569488525</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="16">
         <v>6.320000171661377</v>
       </c>
       <c r="O57">
@@ -52680,7 +52689,7 @@
       <c r="M58">
         <v>0.62999999523162842</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="16">
         <v>6.369999885559082</v>
       </c>
       <c r="O58">
@@ -52810,7 +52819,7 @@
       <c r="M59">
         <v>0.62999999523162842</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="16">
         <v>6.369999885559082</v>
       </c>
       <c r="O59">
@@ -52937,7 +52946,7 @@
       <c r="M60">
         <v>0.62999999523162842</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="16">
         <v>6.369999885559082</v>
       </c>
       <c r="O60">
@@ -53052,7 +53061,7 @@
       <c r="M61">
         <v>0.62999999523162842</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="16">
         <v>6.369999885559082</v>
       </c>
       <c r="O61">
@@ -53143,7 +53152,7 @@
       <c r="M62">
         <v>0.6600000262260437</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="16">
         <v>6.4899997711181641</v>
       </c>
       <c r="O62">
@@ -53234,7 +53243,7 @@
       <c r="M63">
         <v>1.8799999952316284</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="16">
         <v>6.3899998664855957</v>
       </c>
       <c r="O63">
@@ -53325,7 +53334,7 @@
       <c r="M64">
         <v>1.8799999952316284</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="16">
         <v>6.559999942779541</v>
       </c>
       <c r="O64">
@@ -53477,7 +53486,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -53526,7 +53535,7 @@
       <c r="M94" t="s">
         <v>11</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N94" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O94" t="s">
@@ -53570,7 +53579,7 @@
       <c r="M95" t="s">
         <v>47</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N95" s="16" t="s">
         <v>43</v>
       </c>
       <c r="O95" t="s">
@@ -53617,7 +53626,7 @@
       <c r="M97" t="s">
         <v>11</v>
       </c>
-      <c r="N97" t="s">
+      <c r="N97" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O97" t="s">
@@ -53661,7 +53670,7 @@
       <c r="M98" t="s">
         <v>50</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N98" s="16" t="s">
         <v>52</v>
       </c>
       <c r="O98" t="s">
@@ -53708,7 +53717,7 @@
       <c r="M100" t="s">
         <v>11</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N100" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O100" t="s">
@@ -53752,7 +53761,7 @@
       <c r="M101" t="s">
         <v>58</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N101" s="16" t="s">
         <v>59</v>
       </c>
       <c r="O101" t="s">
@@ -53799,7 +53808,7 @@
       <c r="M103" t="s">
         <v>11</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O103" t="s">
@@ -53877,7 +53886,7 @@
       <c r="M104" t="s">
         <v>87</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" s="16" t="s">
         <v>88</v>
       </c>
       <c r="O104" t="s">
@@ -53924,7 +53933,7 @@
       <c r="M106" t="s">
         <v>11</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N106" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O106" t="s">
@@ -53968,7 +53977,7 @@
       <c r="M107" t="s">
         <v>69</v>
       </c>
-      <c r="N107" t="s">
+      <c r="N107" s="16" t="s">
         <v>65</v>
       </c>
       <c r="O107" t="s">
@@ -54015,7 +54024,7 @@
       <c r="M109" t="s">
         <v>11</v>
       </c>
-      <c r="N109" t="s">
+      <c r="N109" s="16" t="s">
         <v>13</v>
       </c>
       <c r="O109" t="s">
@@ -54059,7 +54068,7 @@
       <c r="M110" t="s">
         <v>81</v>
       </c>
-      <c r="N110" t="s">
+      <c r="N110" s="16" t="s">
         <v>82</v>
       </c>
       <c r="O110" t="s">

--- a/Groupwork/DF final.xlsx
+++ b/Groupwork/DF final.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="138" documentId="8_{0BFD528B-9ABF-4C8F-89A1-F1492E273C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DC2404-0939-48B4-A1F9-A761DE1F7C07}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="75" windowWidth="16200" windowHeight="9308" firstSheet="5" activeTab="5" xr2:uid="{710F251B-32F8-40FC-8DC3-610372DBFCD8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{710F251B-32F8-40FC-8DC3-610372DBFCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES" sheetId="2" r:id="rId1"/>
@@ -42572,8 +42572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883ADA5E-0EC8-4F04-AFF2-AC3EAF4C7307}">
   <dimension ref="A1:AX110"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -48830,7 +48830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19277D1A-0DFC-4D8C-8B47-C6F58CB8D264}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
